--- a/tester/dataxlsx.xlsx
+++ b/tester/dataxlsx.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\nn\tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\nn\tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
   <si>
     <t>x1</t>
   </si>
@@ -39,9 +39,6 @@
     <t>x3</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +98,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -115,6 +112,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -343,7 +341,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -542,7 +540,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -556,11 +554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403932920"/>
-        <c:axId val="403933248"/>
+        <c:axId val="210584696"/>
+        <c:axId val="210587048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403932920"/>
+        <c:axId val="210584696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,12 +615,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403933248"/>
+        <c:crossAx val="210587048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403933248"/>
+        <c:axId val="210587048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403932920"/>
+        <c:crossAx val="210584696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -693,6 +691,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1649,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,409 +2044,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>0.2</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1">
-        <v>1.0205622581941112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.43</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1.2185069075798352</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.32</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0.18461747103124537</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.53</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1.53472088362903</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.59</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0.82231263356048889</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0.4199229123062711</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>-0.21660316930374252</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>-0.58398458496628258</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1.6982398062237818</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>1.03</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>0.95386304142582834</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>1.8753332870195454</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>1.206</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>1.1325482251038421</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>1.294</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>2.0583063551943952</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>0.2930872564851319</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>1.47</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>0.4442086125524245</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>1.8921337608132698</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
-        <v>1.6459999999999999</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>0.99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>1.734</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>0.93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>0.988834473198547</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>1.91</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>0.94874060431523399</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>1.998</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>0.90864673543192198</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>0.86855286654860897</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>5</v>
-      </c>
-      <c r="B23">
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>0.82845899766529596</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tester/dataxlsx.xlsx
+++ b/tester/dataxlsx.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
   <si>
     <t>x1</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>},</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -554,11 +561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210584696"/>
-        <c:axId val="210587048"/>
+        <c:axId val="221568528"/>
+        <c:axId val="221575584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210584696"/>
+        <c:axId val="221568528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,12 +622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210587048"/>
+        <c:crossAx val="221575584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210587048"/>
+        <c:axId val="221575584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +684,970 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210584696"/>
+        <c:crossAx val="221568528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.15747568811341051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20.668869124907207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.44832277461756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7288394256588564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2851259742384702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.847864657987969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.832918722423475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5666763148714073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.91779883868552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.649424057967865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.006948028025189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11.743837023293889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.613260683881732</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.402880692806001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.593585372509736</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-13.919663154372399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-22.73356819879028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.020885011252098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-20.944322020152402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6847191784651128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.747789014673554</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.241582329948383</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22.011237324567155</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.246054699229177</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.97872124450852</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.280738934912733</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.011654325478094</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.971939698611267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>7.066647012551285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0533679898329424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0311805552126163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9597054535375271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9101374805426268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8510948030223604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7823299831252681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7035438388959614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6143782776614763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5144071103976913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4031242374328485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2799283435402353</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1441028637222539</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9947894041408993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8309518948453007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6513272777286572</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4543560573178569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2380817099392409</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7368238303741039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4440972086577943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1155194082885824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7416573867739413</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3071891388307382</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7838821814150108</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1065374432940898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="410020632"/>
+        <c:axId val="410022200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="410020632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410022200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="410022200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410020632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -798,6 +1768,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1314,24 +2324,575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1646,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,11 +3253,11 @@
         <v>1.2185069075798352</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">A3*0.55 + 0.2</f>
+        <f t="shared" ref="C3:C39" si="0">A3*0.55 + 0.2</f>
         <v>0.4365</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D24" si="1">IF(B3&gt;C3,0,1)</f>
+        <f t="shared" ref="D3:D39" si="1">IF(B3&gt;C3,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2033,6 +3594,272 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f ca="1">RAND()*2 -1</f>
+        <v>-0.43564605231518105</v>
+      </c>
+      <c r="B25">
+        <f ca="1">C25 + (RAND() - 0.5)</f>
+        <v>-0.15271164173768628</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.9605328773349574E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ref="A26:A39" ca="1" si="2">RAND()*2 -1</f>
+        <v>-0.21595843824728655</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B39" ca="1" si="3">C26 + (RAND() - 0.5)</f>
+        <v>9.8580628952453675E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1222858963992395E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12533888293900941</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34747149524901821</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26893638561645516</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1699818535439277</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.17482621304232876</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29349001944916026</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1162584949155181</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.67150016456211115</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.263942172203535</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.21538100404741622</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51166499481366112</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1540447773921082E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52739683093459577</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28561071826384116</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49006825701402773</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29803272913237411</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.7914809222163337</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3639180010228058</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.54975789240150896</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.27418984489478382</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.10236684082082992</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.26309546180950916</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0953212819778733E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5297496004769964E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.8812591272773069E-2</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21897535217680775</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15665307479997481</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4577807787261179E-2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66264344282727328</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23001779428299365</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31835515019265048</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31423755210452048</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37509533260595779</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.045394325345673E-2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.53115040326570218</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21124966878940121</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74489466356584089</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21216018800010528</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60969206496121253</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2044,273 +3871,1318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.4733269582586066</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>3.2684313390665576E-2</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>0.4733269582586066</v>
+      </c>
+      <c r="I1">
+        <v>3.2684313390665576E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.25783683627587672</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.17054996842146317</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>-0.25783683627587672</v>
+      </c>
+      <c r="I2">
+        <v>0.17054996842146317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-0.85191889728094283</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-0.23161463024863677</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>-0.85191889728094283</v>
+      </c>
+      <c r="I3">
+        <v>-0.23161463024863677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.9892651564753363</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.74472490634498356</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.9892651564753363</v>
+      </c>
+      <c r="I4">
+        <v>0.74472490634498356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.68134465948375178</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.43795834230086328</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.68134465948375178</v>
+      </c>
+      <c r="I5">
+        <v>0.43795834230086328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.71072288668523487</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.63647047312415994</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.71072288668523487</v>
+      </c>
+      <c r="I6">
+        <v>0.63647047312415994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-0.56226598881844292</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-0.12990817515670661</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>-0.56226598881844292</v>
+      </c>
+      <c r="I7">
+        <v>-0.12990817515670661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-0.86611278571021888</v>
       </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-0.23181051417069298</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>-0.86611278571021888</v>
+      </c>
+      <c r="I8">
+        <v>-0.23181051417069298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.84226581537780287</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1.0806776953435913</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.84226581537780287</v>
+      </c>
+      <c r="I9">
+        <v>1.0806776953435913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3.9724029973972286E-2</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0.61465584376656479</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3.9724029973972286E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.61465584376656479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-0.93916793368628504</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-0.54352296138918343</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>-0.93916793368628504</v>
+      </c>
+      <c r="I11">
+        <v>-0.54352296138918343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.59795599310864933</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0.30380934912894236</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>-0.59795599310864933</v>
+      </c>
+      <c r="I12">
+        <v>0.30380934912894236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.21591588258343641</v>
       </c>
       <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>0.32955110962749334</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>-0.21591588258343641</v>
+      </c>
+      <c r="I13">
+        <v>0.32955110962749334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>-0.73755471247062898</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0.18162306328252226</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>-0.73755471247062898</v>
+      </c>
+      <c r="I14">
+        <v>0.18162306328252226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <f>5/POWER(A2,3) - POWER(A2,2) + A2 -3</f>
+        <v>317.1875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <f ca="1">C2+D2</f>
+        <v>0.15747568811341051</v>
+      </c>
+      <c r="C2">
+        <f>SQRT(50 - POWER(A2,2))</f>
+        <v>7.066647012551285</v>
+      </c>
+      <c r="D2">
+        <f ca="1">(2*RAND()-1)*$F$1*3</f>
+        <v>-6.9091713244378745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B50" ca="1" si="0">C3+D3</f>
+        <v>-20.668869124907207</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C50" si="1">SQRT(50 - POWER(A3,2))</f>
+        <v>7.0533679898329424</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D50" ca="1" si="2">(2*RAND()-1)*$F$1*3</f>
+        <v>-27.72223711474015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.75</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-11.44832277461756</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>7.0311805552126163</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>-18.479503329830177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7288394256588564</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72883942565885595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2851259742384702</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>6.9597054535375271</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.6745794792990574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.847864657987969</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>6.9101374805426268</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.937727177445343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.75</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.832918722423475</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>6.8510948030223604</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.981823919401116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5666763148714073</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6.7823299831252681</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.2156536682538608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.25</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.91779883868552</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>6.7035438388959614</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>-20.621342677581481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.649424057967865</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>6.6143782776614763</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9649542196936109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.75</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.006948028025189</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>6.5144071103976913</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4925409176274975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>-11.743837023293889</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>-18.146961260726737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.25</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.613260683881732</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>6.2799283435402353</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33333234034149672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.402880692806001</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>6.1441028637222539</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.258777829083748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.75</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.593585372509736</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.9947894041408993</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.598795968368837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.919663154372399</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>-19.7506150492177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.25</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.73356819879028</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>5.6513272777286572</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>-28.384895476518938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.020885011252098</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5.4543560573178569</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.56652895393424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.75</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>-20.944322020152402</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>5.2380817099392409</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-26.182403730091643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6847191784651128</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.3152808215348872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.25</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.747789014673554</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>4.7368238303741039</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0965184299449593E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.241582329948383</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>4.4440972086577943</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.797485121290588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.75</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>-22.011237324567155</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>4.1155194082885824</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>-26.126756732855736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.246054699229177</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>3.7416573867739413</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.504397312455234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.97872124450852</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>3.3071891388307382</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.671532105677784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6.5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.280738934912733</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>2.7838821814150108</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>21.496856753497724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6.75</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.011654325478094</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>2.1065374432940898</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>22.905116882184004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-13.971939698611267</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>-14.971939698611267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.25</v>
+      </c>
+      <c r="B30" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2513113722557172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7.5</v>
+      </c>
+      <c r="B31" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8416269906485967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7.75</v>
+      </c>
+      <c r="B32" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.0487486379489326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.102110369904334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8.25</v>
+      </c>
+      <c r="B34" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>-19.952475262910994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8.5</v>
+      </c>
+      <c r="B35" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10.797177957230101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8.75</v>
+      </c>
+      <c r="B36" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7444003811719071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.8469397345786316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9.25</v>
+      </c>
+      <c r="B38" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.213840911877362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9.5</v>
+      </c>
+      <c r="B39" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.707153775044979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9.75</v>
+      </c>
+      <c r="B40" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>-15.288572061557906</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>-21.733553452126216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10.25</v>
+      </c>
+      <c r="B42" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.931366058203643</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10.5</v>
+      </c>
+      <c r="B43" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19167195569527173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10.75</v>
+      </c>
+      <c r="B44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>-10.330565424865338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.727678563048773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11.25</v>
+      </c>
+      <c r="B46" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3851610257583942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11.5</v>
+      </c>
+      <c r="B47" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7257287687954701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11.75</v>
+      </c>
+      <c r="B48" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>-21.002857562300157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.863386195859313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12.25</v>
+      </c>
+      <c r="B50" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.381287867607352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tester/dataxlsx.xlsx
+++ b/tester/dataxlsx.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\nn\tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nn\tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -119,7 +119,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -348,7 +347,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -547,7 +546,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -698,7 +697,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -766,7 +764,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -780,7 +778,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1015,109 +1012,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.15747568811341051</c:v>
+                  <c:v>7.1974602350392134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20.668869124907207</c:v>
+                  <c:v>3.6752299895488214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.44832277461756</c:v>
+                  <c:v>6.7048931005544121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7288394256588564</c:v>
+                  <c:v>3.8830390497315328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2851259742384702</c:v>
+                  <c:v>3.9542844151971774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.847864657987969</c:v>
+                  <c:v>1.7983290282673927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.832918722423475</c:v>
+                  <c:v>3.3260706426727253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5666763148714073</c:v>
+                  <c:v>7.3051498669345172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13.91779883868552</c:v>
+                  <c:v>7.1121321529812116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.649424057967865</c:v>
+                  <c:v>4.7671572551664525</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.006948028025189</c:v>
+                  <c:v>3.2460861533863152</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-11.743837023293889</c:v>
+                  <c:v>5.6678011171768556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.613260683881732</c:v>
+                  <c:v>2.6918395467941965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.402880692806001</c:v>
+                  <c:v>5.9295720683212885</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.593585372509736</c:v>
+                  <c:v>1.6532202274302819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-13.919663154372399</c:v>
+                  <c:v>3.8306442563355008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-22.73356819879028</c:v>
+                  <c:v>4.0913584936334111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.020885011252098</c:v>
+                  <c:v>2.4609234282366446</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-20.944322020152402</c:v>
+                  <c:v>5.8243015027695622</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6847191784651128</c:v>
+                  <c:v>2.4701429924795661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.747789014673554</c:v>
+                  <c:v>6.3824340583223531</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.241582329948383</c:v>
+                  <c:v>3.4453732251226135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-22.011237324567155</c:v>
+                  <c:v>2.1792779646970204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.246054699229177</c:v>
+                  <c:v>1.2679496693144277</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.97872124450852</c:v>
+                  <c:v>3.4913277199494823</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.280738934912733</c:v>
+                  <c:v>1.4805709314893565</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.011654325478094</c:v>
+                  <c:v>4.4215067027231942</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-13.971939698611267</c:v>
+                  <c:v>-7.9451435165597051E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>3.5156400681829392</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4.516954127890493</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.1694595563674355</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-0.17119574151776717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2.9077748382059068</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.12650280064345809</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.3939188411939565</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1165,6 +1162,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C6-4DDA-9C96-2CB38C2EEB78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1365,109 +1367,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>7.066647012551285</c:v>
+                  <c:v>4.4703886855619164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0533679898329424</c:v>
+                  <c:v>4.4651427748729375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0311805552126163</c:v>
+                  <c:v>4.4563858674939718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4.4440972086577943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9597054535375271</c:v>
+                  <c:v>4.4282473959795876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9101374805426268</c:v>
+                  <c:v>4.4087980221370993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8510948030223604</c:v>
+                  <c:v>4.3857011982122085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7823299831252681</c:v>
+                  <c:v>4.358898943540674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7035438388959614</c:v>
+                  <c:v>4.3283224232951962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6143782776614763</c:v>
+                  <c:v>4.2938910093294167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5144071103976913</c:v>
+                  <c:v>4.2555111326373005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4031242374328485</c:v>
+                  <c:v>4.2130748865881795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2799283435402353</c:v>
+                  <c:v>4.1664583281247394</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1441028637222539</c:v>
+                  <c:v>4.1155194082885824</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9947894041408993</c:v>
+                  <c:v>4.0600954422279285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8309518948453007</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6513272777286572</c:v>
+                  <c:v>3.9350190596742984</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4543560573178569</c:v>
+                  <c:v>3.8649062084350767</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.2380817099392409</c:v>
+                  <c:v>3.7893765978060294</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>3.7080992435478315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7368238303741039</c:v>
+                  <c:v>3.6206870894900596</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4440972086577943</c:v>
+                  <c:v>3.5266839949164712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1155194082885824</c:v>
+                  <c:v>3.4255474015111802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7416573867739413</c:v>
+                  <c:v>3.3166247903553998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3071891388307382</c:v>
+                  <c:v>3.1991209730174317</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>3.0720514318611269</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9341736485763756</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2.7838821814150108</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1065374432940898</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.6190408549696205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2.4366985862022408</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2.2325713874364688</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1.7275343701356567</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.3919410907075054</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.92702481088695787</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1515,6 +1517,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36C6-4DDA-9C96-2CB38C2EEB78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1661,7 +1668,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3600,29 +3606,29 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">RAND()*2 -1</f>
-        <v>-0.43564605231518105</v>
+        <v>-0.43398389181256536</v>
       </c>
       <c r="B25">
         <f ca="1">C25 + (RAND() - 0.5)</f>
-        <v>-0.15271164173768628</v>
+        <v>-0.40116661034834944</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9605328773349574E-2</v>
+        <v>-3.8691140496910942E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:A39" ca="1" si="2">RAND()*2 -1</f>
-        <v>-0.21595843824728655</v>
+        <v>0.7183791479689845</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:B39" ca="1" si="3">C26 + (RAND() - 0.5)</f>
-        <v>9.8580628952453675E-2</v>
+        <v>0.96901775413937097</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1222858963992395E-2</v>
+        <v>0.59510853138294151</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
@@ -3632,15 +3638,15 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12533888293900941</v>
+        <v>-0.38551683756139088</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34747149524901821</v>
+        <v>0.24569905391624228</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26893638561645516</v>
+        <v>-1.2034260658764978E-2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
@@ -3650,33 +3656,33 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1699818535439277</v>
+        <v>-0.98224433445471382</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.17482621304232876</v>
+        <v>-0.11858873808863718</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29349001944916026</v>
+        <v>-0.34023438395009259</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1162584949155181</v>
+        <v>-0.43508857960658975</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67150016456211115</v>
+        <v>0.16740043180802641</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.263942172203535</v>
+        <v>-3.929871878362437E-2</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
@@ -3686,15 +3692,15 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21538100404741622</v>
+        <v>-0.75997815455981321</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51166499481366112</v>
+        <v>-8.768936030991259E-2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1540447773921082E-2</v>
+        <v>-0.21798798500789729</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
@@ -3704,51 +3710,51 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52739683093459577</v>
+        <v>-0.94924371787726392</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28561071826384116</v>
+        <v>5.6877980052850663E-2</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49006825701402773</v>
+        <v>-0.32208404483249514</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29803272913237411</v>
+        <v>0.67921416645516941</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7914809222163337</v>
+        <v>0.44210179286112306</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3639180010228058</v>
+        <v>0.57356779155034321</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.54975789240150896</v>
+        <v>-0.2132705363976577</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.27418984489478382</v>
+        <v>-0.31932285124755377</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10236684082082992</v>
+        <v>8.2701204981288273E-2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
@@ -3758,15 +3764,15 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.26309546180950916</v>
+        <v>-0.56005974982296491</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0953212819778733E-2</v>
+        <v>0.3305642548499233</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5297496004769964E-2</v>
+        <v>-0.10803286240263071</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
@@ -3776,15 +3782,15 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.8812591272773069E-2</v>
+        <v>0.8238364825351534</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21897535217680775</v>
+        <v>0.71838336860625507</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15665307479997481</v>
+        <v>0.65311006539433447</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
@@ -3794,15 +3800,15 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4577807787261179E-2</v>
+        <v>0.15138528526668593</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66264344282727328</v>
+        <v>0.75751259610834676</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23001779428299365</v>
+        <v>0.2832619068966773</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -3812,15 +3818,15 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31835515019265048</v>
+        <v>9.6761713065784516E-2</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31423755210452048</v>
+        <v>4.3282989394412552E-3</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37509533260595779</v>
+        <v>0.25321894218618152</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
@@ -3830,15 +3836,15 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="2"/>
-        <v>2.045394325345673E-2</v>
+        <v>0.53891306621932844</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53115040326570218</v>
+        <v>0.68055398667394451</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21124966878940121</v>
+        <v>0.49640218642063066</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
@@ -3848,19 +3854,19 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74489466356584089</v>
+        <v>-0.5185183893455263</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21216018800010528</v>
+        <v>0.36316441345543793</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60969206496121253</v>
+        <v>-8.5185114140039486E-2</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4317,7 +4323,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,7 +4347,7 @@
         <v>7</v>
       </c>
       <c r="F1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1">
         <f>5/POWER(A2,3) - POWER(A2,2) + A2 -3</f>
@@ -4354,15 +4360,15 @@
       </c>
       <c r="B2">
         <f ca="1">C2+D2</f>
-        <v>0.15747568811341051</v>
+        <v>7.1974602350392134</v>
       </c>
       <c r="C2">
-        <f>SQRT(50 - POWER(A2,2))</f>
-        <v>7.066647012551285</v>
+        <f>SQRT(20 - POWER(A2,2)/4)</f>
+        <v>4.4703886855619164</v>
       </c>
       <c r="D2">
         <f ca="1">(2*RAND()-1)*$F$1*3</f>
-        <v>-6.9091713244378745</v>
+        <v>2.727071549477297</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4371,15 +4377,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B50" ca="1" si="0">C3+D3</f>
-        <v>-20.668869124907207</v>
+        <v>3.6752299895488214</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C50" si="1">SQRT(50 - POWER(A3,2))</f>
-        <v>7.0533679898329424</v>
+        <f t="shared" ref="C3:C50" si="1">SQRT(20 - POWER(A3,2)/4)</f>
+        <v>4.4651427748729375</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D50" ca="1" si="2">(2*RAND()-1)*$F$1*3</f>
-        <v>-27.72223711474015</v>
+        <v>-0.78991278532411635</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,15 +4394,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.44832277461756</v>
+        <v>6.7048931005544121</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>7.0311805552126163</v>
+        <v>4.4563858674939718</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>-18.479503329830177</v>
+        <v>2.2485072330604403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4405,15 +4411,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7288394256588564</v>
+        <v>3.8830390497315328</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4.4440972086577943</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72883942565885595</v>
+        <v>-0.56105815892626176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,15 +4428,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2851259742384702</v>
+        <v>3.9542844151971774</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>6.9597054535375271</v>
+        <v>4.4282473959795876</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.6745794792990574</v>
+        <v>-0.47396298078241039</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4439,15 +4445,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.847864657987969</v>
+        <v>1.7983290282673927</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>6.9101374805426268</v>
+        <v>4.4087980221370993</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>11.937727177445343</v>
+        <v>-2.6104689938697065</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,15 +4462,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>26.832918722423475</v>
+        <v>3.3260706426727253</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>6.8510948030223604</v>
+        <v>4.3857011982122085</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>19.981823919401116</v>
+        <v>-1.0596305555394832</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4473,15 +4479,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5666763148714073</v>
+        <v>7.3051498669345172</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>6.7823299831252681</v>
+        <v>4.358898943540674</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.2156536682538608</v>
+        <v>2.9462509233938432</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4490,15 +4496,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.91779883868552</v>
+        <v>7.1121321529812116</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>6.7035438388959614</v>
+        <v>4.3283224232951962</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>-20.621342677581481</v>
+        <v>2.7838097296860154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4507,15 +4513,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.649424057967865</v>
+        <v>4.7671572551664525</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>6.6143782776614763</v>
+        <v>4.2938910093294167</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9649542196936109</v>
+        <v>0.4732662458370358</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,15 +4530,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.006948028025189</v>
+        <v>3.2460861533863152</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>6.5144071103976913</v>
+        <v>4.2555111326373005</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4925409176274975</v>
+        <v>-1.0094249792509851</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4541,15 +4547,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.743837023293889</v>
+        <v>5.6678011171768556</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>6.4031242374328485</v>
+        <v>4.2130748865881795</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>-18.146961260726737</v>
+        <v>1.4547262305886761</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4558,15 +4564,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.613260683881732</v>
+        <v>2.6918395467941965</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>6.2799283435402353</v>
+        <v>4.1664583281247394</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33333234034149672</v>
+        <v>-1.4746187813305429</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4575,15 +4581,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>25.402880692806001</v>
+        <v>5.9295720683212885</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>6.1441028637222539</v>
+        <v>4.1155194082885824</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>19.258777829083748</v>
+        <v>1.8140526600327065</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4592,15 +4598,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>35.593585372509736</v>
+        <v>1.6532202274302819</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>5.9947894041408993</v>
+        <v>4.0600954422279285</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>29.598795968368837</v>
+        <v>-2.4068752147976467</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,15 +4615,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.919663154372399</v>
+        <v>3.8306442563355008</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5.8309518948453007</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>-19.7506150492177</v>
+        <v>-0.16935574366449901</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,15 +4632,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.73356819879028</v>
+        <v>4.0913584936334111</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5.6513272777286572</v>
+        <v>3.9350190596742984</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-28.384895476518938</v>
+        <v>0.15633943395911287</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,15 +4649,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>11.020885011252098</v>
+        <v>2.4609234282366446</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>5.4543560573178569</v>
+        <v>3.8649062084350767</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.56652895393424</v>
+        <v>-1.4039827801984319</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,15 +4666,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.944322020152402</v>
+        <v>5.8243015027695622</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>5.2380817099392409</v>
+        <v>3.7893765978060294</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.182403730091643</v>
+        <v>2.0349249049635327</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,15 +4683,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6847191784651128</v>
+        <v>2.4701429924795661</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3.7080992435478315</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3152808215348872</v>
+        <v>-1.2379562510682656</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,15 +4700,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>4.747789014673554</v>
+        <v>6.3824340583223531</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>4.7368238303741039</v>
+        <v>3.6206870894900596</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0965184299449593E-2</v>
+        <v>2.761746968832294</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,15 +4717,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>28.241582329948383</v>
+        <v>3.4453732251226135</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>4.4440972086577943</v>
+        <v>3.5266839949164712</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>23.797485121290588</v>
+        <v>-8.1310769793857762E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4728,15 +4734,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.011237324567155</v>
+        <v>2.1792779646970204</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>4.1155194082885824</v>
+        <v>3.4255474015111802</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.126756732855736</v>
+        <v>-1.2462694368141598</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,15 +4751,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>17.246054699229177</v>
+        <v>1.2679496693144277</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>3.7416573867739413</v>
+        <v>3.3166247903553998</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>13.504397312455234</v>
+        <v>-2.0486751210409722</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,15 +4768,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>32.97872124450852</v>
+        <v>3.4913277199494823</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>3.3071891388307382</v>
+        <v>3.1991209730174317</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>29.671532105677784</v>
+        <v>0.29220674693205084</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,15 +4785,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>24.280738934912733</v>
+        <v>1.4805709314893565</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>2.7838821814150108</v>
+        <v>3.0720514318611269</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>21.496856753497724</v>
+        <v>-1.5914805003717705</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4796,15 +4802,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>25.011654325478094</v>
+        <v>4.4215067027231942</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>2.1065374432940898</v>
+        <v>2.9341736485763756</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>22.905116882184004</v>
+        <v>1.487333054146819</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,134 +4819,134 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.971939698611267</v>
+        <v>-7.9451435165597051E-2</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.7838821814150108</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>-14.971939698611267</v>
+        <v>-2.8633336165806078</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.25</v>
       </c>
-      <c r="B30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C30" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5156400681829392</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>2.6190408549696205</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2513113722557172</v>
+        <v>0.8965992132133187</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5</v>
       </c>
-      <c r="B31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C31" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.516954127890493</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2.4366985862022408</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8416269906485967</v>
+        <v>2.0802555416882518</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.75</v>
       </c>
-      <c r="B32" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C32" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1694595563674355</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>2.2325713874364688</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.0487486379489326</v>
+        <v>1.9368881689309667</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C33" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.17119574151776717</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>16.102110369904334</v>
+        <v>-2.1711957415177672</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8.25</v>
       </c>
-      <c r="B34" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C34" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9077748382059068</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.7275343701356567</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-19.952475262910994</v>
+        <v>1.1802404680702501</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8.5</v>
       </c>
-      <c r="B35" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C35" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12650280064345809</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.3919410907075054</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.797177957230101</v>
+        <v>-1.2654382900640473</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8.75</v>
       </c>
-      <c r="B36" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C36" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3939188411939565</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.92702481088695787</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7444003811719071</v>
+        <v>2.4668940303069986</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,7 +4963,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.8469397345786316</v>
+        <v>-1.8143691278217928</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,7 +4980,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>17.213840911877362</v>
+        <v>2.0652816123773632</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,7 +4997,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>23.707153775044979</v>
+        <v>-1.7447713927792554</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,7 +5014,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>-15.288572061557906</v>
+        <v>-1.7833582650158009</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,7 +5031,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.733553452126216</v>
+        <v>-1.8659332133740987</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,7 +5048,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>23.931366058203643</v>
+        <v>-0.50377556051668604</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,7 +5065,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19167195569527173</v>
+        <v>-1.2770104296209395</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5076,7 +5082,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.330565424865338</v>
+        <v>-2.8250565694806866</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5093,7 +5099,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>12.727678563048773</v>
+        <v>-1.0915470562053193</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,7 +5116,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3851610257583942</v>
+        <v>0.85524311856339752</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,7 +5133,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7257287687954701</v>
+        <v>2.9551337538653097</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,7 +5150,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.002857562300157</v>
+        <v>2.7764750379994796</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,7 +5167,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.863386195859313</v>
+        <v>-1.4057596005428274</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,7 +5184,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>16.381287867607352</v>
+        <v>-2.8216097549347663</v>
       </c>
     </row>
   </sheetData>

--- a/tester/dataxlsx.xlsx
+++ b/tester/dataxlsx.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nn\tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\nn\tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -119,6 +119,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -347,7 +348,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -546,7 +547,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C86-48E3-A5BC-4887D570531D}"/>
             </c:ext>
@@ -560,11 +561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221568528"/>
-        <c:axId val="221575584"/>
+        <c:axId val="229201640"/>
+        <c:axId val="229209872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221568528"/>
+        <c:axId val="229201640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221575584"/>
+        <c:crossAx val="229209872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221575584"/>
+        <c:axId val="229209872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221568528"/>
+        <c:crossAx val="229201640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -697,6 +698,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -764,7 +766,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -778,6 +780,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1012,109 +1015,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>7.1974602350392134</c:v>
+                  <c:v>4.7505235215475174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6752299895488214</c:v>
+                  <c:v>3.4071537162023819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7048931005544121</c:v>
+                  <c:v>5.9885830337937849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8830390497315328</c:v>
+                  <c:v>2.5977834217826943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9542844151971774</c:v>
+                  <c:v>2.1948241518949607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7983290282673927</c:v>
+                  <c:v>6.0222961436326941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3260706426727253</c:v>
+                  <c:v>6.050441827109843</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3051498669345172</c:v>
+                  <c:v>2.9576190143212173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1121321529812116</c:v>
+                  <c:v>7.2174735272262565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7671572551664525</c:v>
+                  <c:v>3.5357027411246529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2460861533863152</c:v>
+                  <c:v>1.2745594191287646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6678011171768556</c:v>
+                  <c:v>3.3293368879230738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6918395467941965</c:v>
+                  <c:v>5.5966855916874758</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9295720683212885</c:v>
+                  <c:v>6.8448397071140219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6532202274302819</c:v>
+                  <c:v>2.1434194268472213</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8306442563355008</c:v>
+                  <c:v>1.8414475478602679</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0913584936334111</c:v>
+                  <c:v>1.2093736671976574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4609234282366446</c:v>
+                  <c:v>1.712105976754057</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8243015027695622</c:v>
+                  <c:v>2.4048950382367575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4701429924795661</c:v>
+                  <c:v>5.6942795292762938</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3824340583223531</c:v>
+                  <c:v>5.2004673590911938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4453732251226135</c:v>
+                  <c:v>1.4687945700125917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1792779646970204</c:v>
+                  <c:v>3.5618099407295079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2679496693144277</c:v>
+                  <c:v>2.4500034975985949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4913277199494823</c:v>
+                  <c:v>1.7529973619681694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4805709314893565</c:v>
+                  <c:v>3.9550592392166308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4215067027231942</c:v>
+                  <c:v>4.4882150294988037</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7.9451435165597051E-2</c:v>
+                  <c:v>3.6373247509954707</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5156400681829392</c:v>
+                  <c:v>5.3777141942379592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.516954127890493</c:v>
+                  <c:v>3.8693366549165424</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.1694595563674355</c:v>
+                  <c:v>0.26425347658667575</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.17119574151776717</c:v>
+                  <c:v>2.0651654365319754</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9077748382059068</c:v>
+                  <c:v>2.1191785694251859</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12650280064345809</c:v>
+                  <c:v>1.8404750231003242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3939188411939565</c:v>
+                  <c:v>-1.0081205618618077</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1162,7 +1165,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36C6-4DDA-9C96-2CB38C2EEB78}"/>
             </c:ext>
@@ -1517,7 +1520,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-36C6-4DDA-9C96-2CB38C2EEB78}"/>
             </c:ext>
@@ -1531,11 +1534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410020632"/>
-        <c:axId val="410022200"/>
+        <c:axId val="229199680"/>
+        <c:axId val="229200856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410020632"/>
+        <c:axId val="229199680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,12 +1595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410022200"/>
+        <c:crossAx val="229200856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410022200"/>
+        <c:axId val="229200856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410020632"/>
+        <c:crossAx val="229199680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,6 +1671,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3215,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,101 +3610,101 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">RAND()*2 -1</f>
-        <v>-0.43398389181256536</v>
+        <v>-0.10962749686832418</v>
       </c>
       <c r="B25">
         <f ca="1">C25 + (RAND() - 0.5)</f>
-        <v>-0.40116661034834944</v>
+        <v>6.6256548710122654E-2</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8691140496910942E-2</v>
+        <v>0.13970487672242171</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:A39" ca="1" si="2">RAND()*2 -1</f>
-        <v>0.7183791479689845</v>
+        <v>-0.76901936263189619</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:B39" ca="1" si="3">C26 + (RAND() - 0.5)</f>
-        <v>0.96901775413937097</v>
+        <v>-0.36333133573895759</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59510853138294151</v>
+        <v>-0.2229606494475429</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.38551683756139088</v>
+        <v>0.6065793937355406</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24569905391624228</v>
+        <v>0.3668069674440082</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2034260658764978E-2</v>
+        <v>0.53361866655454737</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.98224433445471382</v>
+        <v>5.450719618418165E-2</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11858873808863718</v>
+        <v>0.11863401450579864</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34023438395009259</v>
+        <v>0.22997895790129991</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.43508857960658975</v>
+        <v>0.59778989368437685</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16740043180802641</v>
+        <v>0.23746812050258137</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.929871878362437E-2</v>
+        <v>0.52878444152640736</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.75997815455981321</v>
+        <v>0.45433470808439935</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.768936030991259E-2</v>
+        <v>0.88767454227842502</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21798798500789729</v>
+        <v>0.44988408944641967</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
@@ -3710,33 +3714,33 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.94924371787726392</v>
+        <v>0.18192630537804821</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6877980052850663E-2</v>
+        <v>0.13488497390600834</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32208404483249514</v>
+        <v>0.30005946795792654</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67921416645516941</v>
+        <v>-0.38156105506258831</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44210179286112306</v>
+        <v>-0.27264757578943422</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57356779155034321</v>
+        <v>-9.8585802844235737E-3</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
@@ -3746,51 +3750,51 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.2132705363976577</v>
+        <v>-0.36254807476541018</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.31932285124755377</v>
+        <v>0.17534619197350779</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2701204981288273E-2</v>
+        <v>5.9855887902440785E-4</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56005974982296491</v>
+        <v>-0.22630077954665961</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3305642548499233</v>
+        <v>3.4575257720394215E-2</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10803286240263071</v>
+        <v>7.5534571249337212E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8238364825351534</v>
+        <v>0.61729705454693651</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71838336860625507</v>
+        <v>0.88631589036491321</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65311006539433447</v>
+        <v>0.53951338000081517</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
@@ -3800,15 +3804,15 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15138528526668593</v>
+        <v>0.10290320887887883</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75751259610834676</v>
+        <v>0.67948126913206142</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2832619068966773</v>
+        <v>0.25659676488338334</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -3818,15 +3822,15 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6761713065784516E-2</v>
+        <v>-0.8230029126223013</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3282989394412552E-3</v>
+        <v>-0.29719481534236375</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25321894218618152</v>
+        <v>-0.25265160194226571</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
@@ -3836,33 +3840,33 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53891306621932844</v>
+        <v>-9.2377158075165777E-2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68055398667394451</v>
+        <v>-7.2321667825667374E-2</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49640218642063066</v>
+        <v>0.14919256305865883</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.5185183893455263</v>
+        <v>0.12835968013985077</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36316441345543793</v>
+        <v>0.32822051313791861</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5185114140039486E-2</v>
+        <v>0.27059782407691796</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
@@ -4323,7 +4327,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C50"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4364,7 @@
       </c>
       <c r="B2">
         <f ca="1">C2+D2</f>
-        <v>7.1974602350392134</v>
+        <v>4.7505235215475174</v>
       </c>
       <c r="C2">
         <f>SQRT(20 - POWER(A2,2)/4)</f>
@@ -4368,7 +4372,7 @@
       </c>
       <c r="D2">
         <f ca="1">(2*RAND()-1)*$F$1*3</f>
-        <v>2.727071549477297</v>
+        <v>0.28013483598560129</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4377,7 +4381,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B50" ca="1" si="0">C3+D3</f>
-        <v>3.6752299895488214</v>
+        <v>3.4071537162023819</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C50" si="1">SQRT(20 - POWER(A3,2)/4)</f>
@@ -4385,7 +4389,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D50" ca="1" si="2">(2*RAND()-1)*$F$1*3</f>
-        <v>-0.78991278532411635</v>
+        <v>-1.0579890586705556</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4398,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7048931005544121</v>
+        <v>5.9885830337937849</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -4402,7 +4406,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2485072330604403</v>
+        <v>1.5321971662998133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,7 +4415,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8830390497315328</v>
+        <v>2.5977834217826943</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -4419,7 +4423,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56105815892626176</v>
+        <v>-1.8463137868751001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4428,7 +4432,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9542844151971774</v>
+        <v>2.1948241518949607</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -4436,7 +4440,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.47396298078241039</v>
+        <v>-2.2334232440846269</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4445,7 +4449,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7983290282673927</v>
+        <v>6.0222961436326941</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -4453,7 +4457,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.6104689938697065</v>
+        <v>1.6134981214955948</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,7 +4466,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3260706426727253</v>
+        <v>6.050441827109843</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -4470,7 +4474,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0596305555394832</v>
+        <v>1.6647406288976341</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4479,7 +4483,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3051498669345172</v>
+        <v>2.9576190143212173</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -4487,7 +4491,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9462509233938432</v>
+        <v>-1.4012799292194567</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4496,7 +4500,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1121321529812116</v>
+        <v>7.2174735272262565</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -4504,7 +4508,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7838097296860154</v>
+        <v>2.8891511039310602</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4513,7 +4517,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7671572551664525</v>
+        <v>3.5357027411246529</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -4521,7 +4525,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4732662458370358</v>
+        <v>-0.75818826820476382</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4530,7 +4534,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2460861533863152</v>
+        <v>1.2745594191287646</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -4538,7 +4542,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0094249792509851</v>
+        <v>-2.9809517135085359</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4551,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6678011171768556</v>
+        <v>3.3293368879230738</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -4555,7 +4559,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4547262305886761</v>
+        <v>-0.88373799866510572</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4564,7 +4568,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6918395467941965</v>
+        <v>5.5966855916874758</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -4572,7 +4576,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4746187813305429</v>
+        <v>1.4302272635627364</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4581,7 +4585,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9295720683212885</v>
+        <v>6.8448397071140219</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -4589,7 +4593,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8140526600327065</v>
+        <v>2.7293202988254395</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4598,7 +4602,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6532202274302819</v>
+        <v>2.1434194268472213</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -4606,7 +4610,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.4068752147976467</v>
+        <v>-1.9166760153807074</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,7 +4619,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8306442563355008</v>
+        <v>1.8414475478602679</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -4623,7 +4627,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16935574366449901</v>
+        <v>-2.1585524521397321</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,7 +4636,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0913584936334111</v>
+        <v>1.2093736671976574</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -4640,7 +4644,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15633943395911287</v>
+        <v>-2.7256453924766411</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,7 +4653,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4609234282366446</v>
+        <v>1.712105976754057</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -4657,7 +4661,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4039827801984319</v>
+        <v>-2.1528002316810197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,7 +4670,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8243015027695622</v>
+        <v>2.4048950382367575</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -4674,7 +4678,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0349249049635327</v>
+        <v>-1.3844815595692717</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,7 +4687,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4701429924795661</v>
+        <v>5.6942795292762938</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -4691,7 +4695,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2379562510682656</v>
+        <v>1.9861802857284618</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,7 +4704,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3824340583223531</v>
+        <v>5.2004673590911938</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -4708,7 +4712,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>2.761746968832294</v>
+        <v>1.5797802696011345</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,7 +4721,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4453732251226135</v>
+        <v>1.4687945700125917</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -4725,7 +4729,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.1310769793857762E-2</v>
+        <v>-2.0578894249038795</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,7 +4738,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1792779646970204</v>
+        <v>3.5618099407295079</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -4742,7 +4746,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2462694368141598</v>
+        <v>0.13626253921832765</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,7 +4755,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2679496693144277</v>
+        <v>2.4500034975985949</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -4759,7 +4763,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.0486751210409722</v>
+        <v>-0.86662129275680488</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4768,7 +4772,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4913277199494823</v>
+        <v>1.7529973619681694</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -4776,7 +4780,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29220674693205084</v>
+        <v>-1.4461236110492623</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4789,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4805709314893565</v>
+        <v>3.9550592392166308</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -4793,7 +4797,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.5914805003717705</v>
+        <v>0.8830078073555041</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,7 +4806,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4215067027231942</v>
+        <v>4.4882150294988037</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -4810,7 +4814,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.487333054146819</v>
+        <v>1.5540413809224281</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,7 +4823,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9451435165597051E-2</v>
+        <v>3.6373247509954707</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -4827,7 +4831,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8633336165806078</v>
+        <v>0.85344256958045994</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,7 +4840,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5156400681829392</v>
+        <v>5.3777141942379592</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -4844,7 +4848,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8965992132133187</v>
+        <v>2.7586733392683387</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,7 +4857,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>4.516954127890493</v>
+        <v>3.8693366549165424</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -4861,7 +4865,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0802555416882518</v>
+        <v>1.4326380687143017</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4870,7 +4874,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1694595563674355</v>
+        <v>0.26425347658667575</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -4878,7 +4882,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9368881689309667</v>
+        <v>-1.968317910849793</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,7 +4891,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17119574151776717</v>
+        <v>2.0651654365319754</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -4895,7 +4899,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.1711957415177672</v>
+        <v>6.5165436531975152E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,7 +4908,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9077748382059068</v>
+        <v>2.1191785694251859</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -4912,7 +4916,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1802404680702501</v>
+        <v>0.3916441992895292</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,7 +4925,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12650280064345809</v>
+        <v>1.8404750231003242</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -4929,7 +4933,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2654382900640473</v>
+        <v>0.4485339323928188</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,7 +4942,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3939188411939565</v>
+        <v>-1.0081205618618077</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -4946,7 +4950,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4668940303069986</v>
+        <v>-1.9351453727487655</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,7 +4967,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8143691278217928</v>
+        <v>-2.8983677207694418</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4980,7 +4984,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0652816123773632</v>
+        <v>1.5342181495060503</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,7 +5001,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7447713927792554</v>
+        <v>-0.21020731542056081</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,7 +5018,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.7833582650158009</v>
+        <v>2.6979684393265702</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,7 +5035,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8659332133740987</v>
+        <v>-1.1753852563765137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5048,7 +5052,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.50377556051668604</v>
+        <v>0.34322938091683564</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5065,7 +5069,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.2770104296209395</v>
+        <v>1.8603868039702414</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,7 +5086,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8250565694806866</v>
+        <v>-2.333941954479716</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,7 +5103,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.0915470562053193</v>
+        <v>-2.0825197950410761</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5116,7 +5120,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85524311856339752</v>
+        <v>0.44678192939107819</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,7 +5137,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9551337538653097</v>
+        <v>-0.2738913861162815</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,7 +5154,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7764750379994796</v>
+        <v>1.6697285989458381</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,7 +5171,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.4057596005428274</v>
+        <v>2.8506197371633011</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,7 +5188,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8216097549347663</v>
+        <v>-2.5090895284603167</v>
       </c>
     </row>
   </sheetData>
